--- a/Dataset/Folds/Fold_4/Excel/107.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="275">
   <si>
     <t>Doi</t>
   </si>
@@ -978,6 +978,66 @@
   </si>
   <si>
     <t>[Arkaitz%Castañeda-Babarro%NULL%1,           Ane%Arbillaga-Etxarri%NULL%2,           Ane%Arbillaga-Etxarri%NULL%0,           Borja%Gutiérrez-Santamaría%NULL%1,           Aitor%Coca%NULL%2,           Aitor%Coca%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Achraf%Ammar%NULL%1,            Hamdi%Chtourou%NULL%2,            Hamdi%Chtourou%NULL%0,            Omar%Boukhris%NULL%2,            Omar%Boukhris%NULL%0,            Khaled%Trabelsi%NULL%2,            Khaled%Trabelsi%NULL%0,            Liwa%Masmoudi%NULL%2,            Liwa%Masmoudi%NULL%0,            Michael%Brach%NULL%1,            Bassem%Bouaziz%NULL%1,            Ellen%Bentlage%NULL%1,            Daniella%How%NULL%2,            Daniella%How%NULL%0,            Mona%Ahmed%NULL%1,            Patrick%Mueller%NULL%1,            Notger%Mueller%NULL%1,            Hsen%Hsouna%NULL%1,            Asma%Aloui%NULL%1,            Omar%Hammouda%NULL%1,            Laisa Liane%Paineiras-Domingos%NULL%1,            Annemarie%Braakman-Jansen%NULL%2,            Annemarie%Braakman-Jansen%NULL%0,            Christian%Wrede%NULL%1,            Sophia%Bastoni%NULL%1,            Carlos Soares%Pernambuco%NULL%1,            Leonardo Jose%Mataruna-Dos-Santos%NULL%1,            Morteza%Taheri%NULL%2,            Morteza%Taheri%NULL%0,            Khadijeh%Irandoust%NULL%2,            Khadijeh%Irandoust%NULL%0,            Aïmen%Khacharem%NULL%1,            Nicola L.%Bragazzi%NULL%1,            Jana%Strahler%NULL%2,            Jana%Strahler%NULL%0,            Jad Adrian%Washif%NULL%1,            Albina%Andreeva%NULL%1,            Samira C.%khoshnami%NULL%1,            Evangelia%Samara%NULL%1,            Vasiliki%Zisi%NULL%1,            Parasanth%Sankar%NULL%1,            Waseem N.%Ahmed%NULL%1,            Mohamed%Romdhani%NULL%1,            Jan%Delhey%NULL%1,            Stephen J.%Bailey%NULL%1,            Nicholas T.%Bott%NULL%1,            Faiez%Gargouri%NULL%2,            Faiez%Gargouri%NULL%0,            Lotfi%Chaari%NULL%1,            Hadj%Batatia%NULL%1,            Gamal Mohamed%Ali%NULL%1,            Osama%Abdelkarim%NULL%1,            Mohamed%Jarraya%NULL%1,            Kais El%Abed%NULL%1,            Nizar%Souissi%NULL%1,            Lisette Van%Gemert-Pijnen%NULL%1,            Bryan L.%Riemann%NULL%1,            Laurel%Riemann%NULL%1,            Wassim%Moalla%NULL%1,            Jonathan%Gómez-Raja%NULL%1,            Monique%Epstein%NULL%2,            Monique%Epstein%NULL%0,            Robbert%Sanderman%NULL%1,            Sebastian%Schulz%NULL%1,            Achim%Jerg%NULL%2,            Achim%Jerg%NULL%0,            Ramzi%Al-Horani%NULL%1,            Taiysir%Mansi%NULL%1,            Mohamed%Jmail%NULL%1,            Fernando%Barbosa%NULL%1,            Fernando%Ferreira-Santos%NULL%1,            Boštjan%Šimunič%NULL%2,            Boštjan%Šimunič%NULL%0,            Rado%Pišot%NULL%1,            Saša%Pišot%NULL%1,            Andrea%Gaggioli%NULL%1,            Piotr%Zmijewski%NULL%1,            Christian%Apfelbacher%NULL%1,            Jürgen%Steinacker%NULL%1,            Helmi Ben%Saad%NULL%1,            Jordan M.%Glenn%NULL%1,            Karim%Chamari%NULL%1,            Tarak%Driss%NULL%1,            Anita%Hoekelmann%NULL%1,            NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi%Barrea%luigi.barrea@unina.it%1,            Gabriella%Pugliese%NULL%2,            Gabriella%Pugliese%NULL%0,            Lydia%Framondi%NULL%1,            Rossana%Di Matteo%NULL%1,            Daniela%Laudisio%NULL%1,            Silvia%Savastano%NULL%1,            Annamaria%Colao%NULL%1,            Giovanna%Muscogiuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gemma%Biviá-Roig%NULL%1,            Valentina Lucia%La Rosa%NULL%2,            Valentina Lucia%La Rosa%NULL%0,            María%Gómez-Tébar%NULL%2,            María%Gómez-Tébar%NULL%0,            Lola%Serrano-Raya%NULL%1,            Juan José%Amer-Cuenca%NULL%1,            Salvatore%Caruso%NULL%1,            Elena%Commodari%NULL%2,            Elena%Commodari%NULL%0,            Antonio%Barrasa-Shaw%NULL%1,            Juan Francisco%Lisón%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dimitrios I.%Bourdas%NULL%2,            Emmanouil D.%Zacharakis%NULL%3,            Emmanouil D.%Zacharakis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dimitrios I.%Bourdas%dbourdas@hotmail.gr%0,            Emmanouil D.%Zacharakis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawn%Branley-Bell%dawn.branley-bell@northumbria.ac.uk%1,            Catherine V.%Talbot%NULL%2,            Catherine V.%Talbot%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arkaitz%Castañeda-Babarro%NULL%1,            Ane%Arbillaga-Etxarri%NULL%2,            Ane%Arbillaga-Etxarri%NULL%0,            Borja%Gutiérrez-Santamaría%NULL%1,            Aitor%Coca%NULL%2,            Aitor%Coca%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Achraf%Ammar%NULL%1,             Hamdi%Chtourou%NULL%2,             Hamdi%Chtourou%NULL%0,             Omar%Boukhris%NULL%2,             Omar%Boukhris%NULL%0,             Khaled%Trabelsi%NULL%2,             Khaled%Trabelsi%NULL%0,             Liwa%Masmoudi%NULL%2,             Liwa%Masmoudi%NULL%0,             Michael%Brach%NULL%1,             Bassem%Bouaziz%NULL%1,             Ellen%Bentlage%NULL%1,             Daniella%How%NULL%2,             Daniella%How%NULL%0,             Mona%Ahmed%NULL%1,             Patrick%Mueller%NULL%1,             Notger%Mueller%NULL%1,             Hsen%Hsouna%NULL%1,             Asma%Aloui%NULL%1,             Omar%Hammouda%NULL%1,             Laisa Liane%Paineiras-Domingos%NULL%1,             Annemarie%Braakman-Jansen%NULL%2,             Annemarie%Braakman-Jansen%NULL%0,             Christian%Wrede%NULL%1,             Sophia%Bastoni%NULL%1,             Carlos Soares%Pernambuco%NULL%1,             Leonardo Jose%Mataruna-Dos-Santos%NULL%1,             Morteza%Taheri%NULL%2,             Morteza%Taheri%NULL%0,             Khadijeh%Irandoust%NULL%2,             Khadijeh%Irandoust%NULL%0,             Aïmen%Khacharem%NULL%1,             Nicola L.%Bragazzi%NULL%1,             Jana%Strahler%NULL%2,             Jana%Strahler%NULL%0,             Jad Adrian%Washif%NULL%1,             Albina%Andreeva%NULL%1,             Samira C.%khoshnami%NULL%1,             Evangelia%Samara%NULL%1,             Vasiliki%Zisi%NULL%1,             Parasanth%Sankar%NULL%1,             Waseem N.%Ahmed%NULL%1,             Mohamed%Romdhani%NULL%1,             Jan%Delhey%NULL%1,             Stephen J.%Bailey%NULL%1,             Nicholas T.%Bott%NULL%1,             Faiez%Gargouri%NULL%2,             Faiez%Gargouri%NULL%0,             Lotfi%Chaari%NULL%1,             Hadj%Batatia%NULL%1,             Gamal Mohamed%Ali%NULL%1,             Osama%Abdelkarim%NULL%1,             Mohamed%Jarraya%NULL%1,             Kais El%Abed%NULL%1,             Nizar%Souissi%NULL%1,             Lisette Van%Gemert-Pijnen%NULL%1,             Bryan L.%Riemann%NULL%1,             Laurel%Riemann%NULL%1,             Wassim%Moalla%NULL%1,             Jonathan%Gómez-Raja%NULL%1,             Monique%Epstein%NULL%2,             Monique%Epstein%NULL%0,             Robbert%Sanderman%NULL%1,             Sebastian%Schulz%NULL%1,             Achim%Jerg%NULL%2,             Achim%Jerg%NULL%0,             Ramzi%Al-Horani%NULL%1,             Taiysir%Mansi%NULL%1,             Mohamed%Jmail%NULL%1,             Fernando%Barbosa%NULL%1,             Fernando%Ferreira-Santos%NULL%1,             Boštjan%Šimunič%NULL%2,             Boštjan%Šimunič%NULL%0,             Rado%Pišot%NULL%1,             Saša%Pišot%NULL%1,             Andrea%Gaggioli%NULL%1,             Piotr%Zmijewski%NULL%1,             Christian%Apfelbacher%NULL%1,             Jürgen%Steinacker%NULL%1,             Helmi Ben%Saad%NULL%1,             Jordan M.%Glenn%NULL%1,             Karim%Chamari%NULL%1,             Tarak%Driss%NULL%1,             Anita%Hoekelmann%NULL%1,             NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi%Barrea%luigi.barrea@unina.it%1,             Gabriella%Pugliese%NULL%2,             Gabriella%Pugliese%NULL%0,             Lydia%Framondi%NULL%1,             Rossana%Di Matteo%NULL%1,             Daniela%Laudisio%NULL%1,             Silvia%Savastano%NULL%1,             Annamaria%Colao%NULL%1,             Giovanna%Muscogiuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gemma%Biviá-Roig%NULL%1,             Valentina Lucia%La Rosa%NULL%2,             Valentina Lucia%La Rosa%NULL%0,             María%Gómez-Tébar%NULL%2,             María%Gómez-Tébar%NULL%0,             Lola%Serrano-Raya%NULL%1,             Juan José%Amer-Cuenca%NULL%1,             Salvatore%Caruso%NULL%1,             Elena%Commodari%NULL%2,             Elena%Commodari%NULL%0,             Antonio%Barrasa-Shaw%NULL%1,             Juan Francisco%Lisón%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dimitrios I.%Bourdas%NULL%2,             Emmanouil D.%Zacharakis%NULL%3,             Emmanouil D.%Zacharakis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dimitrios I.%Bourdas%dbourdas@hotmail.gr%0,             Emmanouil D.%Zacharakis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawn%Branley-Bell%dawn.branley-bell@northumbria.ac.uk%1,             Catherine V.%Talbot%NULL%2,             Catherine V.%Talbot%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arkaitz%Castañeda-Babarro%NULL%1,             Ane%Arbillaga-Etxarri%NULL%2,             Ane%Arbillaga-Etxarri%NULL%0,             Borja%Gutiérrez-Santamaría%NULL%1,             Aitor%Coca%NULL%2,             Aitor%Coca%NULL%0]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>[Luigi%Barrea%luigi.barrea@unina.it%0, Gabriella%Pugliese%NULL%2, Gabriella%Pugliese%NULL%0, Lydia%Framondi%NULL%1, Rossana%Di Matteo%NULL%1, Daniela%Laudisio%NULL%1, Silvia%Savastano%NULL%1, Annamaria%Colao%NULL%1, Giovanna%Muscogiuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Gemma%Biviá-Roig%NULL%0, Valentina Lucia%La Rosa%NULL%2, Valentina Lucia%La Rosa%NULL%0, María%Gómez-Tébar%NULL%2, María%Gómez-Tébar%NULL%0, Lola%Serrano-Raya%NULL%1, Juan José%Amer-Cuenca%NULL%1, Salvatore%Caruso%NULL%1, Elena%Commodari%NULL%2, Elena%Commodari%NULL%0, Antonio%Barrasa-Shaw%NULL%1, Juan Francisco%Lisón%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>American Association for Geriatric Psychiatry. Published by Elsevier Inc.</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1387,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1339,10 +1399,10 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1423,7 +1483,7 @@
         <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1435,10 +1495,10 @@
         <v>116</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1449,28 +1509,28 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1487,7 +1547,7 @@
         <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1499,10 +1559,10 @@
         <v>122</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1519,7 +1579,7 @@
         <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -1531,10 +1591,10 @@
         <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1551,7 +1611,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -1563,10 +1623,10 @@
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1577,25 +1637,25 @@
         <v>2020</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
@@ -1615,7 +1675,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -1627,10 +1687,10 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1647,7 +1707,7 @@
         <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
         <v>53</v>
@@ -1659,10 +1719,10 @@
         <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1679,7 +1739,7 @@
         <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>57</v>
@@ -1691,10 +1751,10 @@
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1705,25 +1765,25 @@
         <v>2020</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
         <v>46</v>
@@ -1743,7 +1803,7 @@
         <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
@@ -1755,10 +1815,10 @@
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
